--- a/Doc/Asistencia.xlsx
+++ b/Doc/Asistencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\UNI\UNI-FIIS-TPW-2022-1\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB90DCC1-5EBD-4B2C-9519-1221DB686B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5FB131-6A40-43C7-8409-1B8131391104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>Paolo Luis Lobatón Caparó</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>ESTUDIANTE</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -137,7 +140,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -153,6 +156,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -438,15 +447,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" customWidth="1"/>
     <col min="2" max="2" width="37.42578125" customWidth="1"/>
-    <col min="3" max="18" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="7" customWidth="1"/>
+    <col min="4" max="18" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
@@ -518,7 +528,9 @@
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -542,7 +554,9 @@
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -566,7 +580,9 @@
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -590,7 +606,9 @@
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -614,7 +632,9 @@
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -638,7 +658,9 @@
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -662,7 +684,9 @@
       <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -686,7 +710,9 @@
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -703,24 +729,52 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="8"/>
+    </row>
+    <row r="16" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="8"/>
+    </row>
+    <row r="17" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="8"/>
+    </row>
+    <row r="18" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="8"/>
+    </row>
+    <row r="19" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="8"/>
+    </row>
+    <row r="20" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="8"/>
+    </row>
+    <row r="21" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="8"/>
+    </row>
+    <row r="22" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="8"/>
+    </row>
+    <row r="23" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="8"/>
+    </row>
+    <row r="24" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="8"/>
+    </row>
+    <row r="25" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="8"/>
+    </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="C26" s="8"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -741,7 +795,7 @@
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="C27" s="8"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>

--- a/Doc/Asistencia.xlsx
+++ b/Doc/Asistencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\UNI\UNI-FIIS-TPW-2022-1\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5FB131-6A40-43C7-8409-1B8131391104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4901B264-BB76-43E6-BA3F-7C8499A29D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
   <si>
     <t>Paolo Luis Lobatón Caparó</t>
   </si>
@@ -448,15 +448,15 @@
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" customWidth="1"/>
     <col min="2" max="2" width="37.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="7" customWidth="1"/>
-    <col min="4" max="18" width="8.7109375" customWidth="1"/>
+    <col min="3" max="4" width="8.7109375" style="7" customWidth="1"/>
+    <col min="5" max="18" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
@@ -531,7 +531,9 @@
       <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -557,7 +559,9 @@
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -583,7 +587,9 @@
       <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -609,7 +615,9 @@
       <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -635,7 +643,9 @@
       <c r="C8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -661,7 +671,9 @@
       <c r="C9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -687,7 +699,9 @@
       <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -713,7 +727,9 @@
       <c r="C11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -731,51 +747,65 @@
     </row>
     <row r="12" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
     </row>
     <row r="14" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="3"/>
+      <c r="D26" s="8"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -796,7 +826,7 @@
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="3"/>
+      <c r="D27" s="8"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>

--- a/Doc/Asistencia.xlsx
+++ b/Doc/Asistencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\UNI\UNI-FIIS-TPW-2022-1\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4901B264-BB76-43E6-BA3F-7C8499A29D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671A4D53-6C1E-46BD-9014-3B12D0C6921F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="12">
   <si>
     <t>Paolo Luis Lobatón Caparó</t>
   </si>
@@ -448,15 +448,15 @@
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" customWidth="1"/>
     <col min="2" max="2" width="37.42578125" customWidth="1"/>
-    <col min="3" max="4" width="8.7109375" style="7" customWidth="1"/>
-    <col min="5" max="18" width="8.7109375" customWidth="1"/>
+    <col min="3" max="5" width="8.7109375" style="7" customWidth="1"/>
+    <col min="6" max="18" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
@@ -534,7 +534,9 @@
       <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -562,7 +564,9 @@
       <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -590,7 +594,9 @@
       <c r="D6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -618,7 +624,9 @@
       <c r="D7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -646,7 +654,9 @@
       <c r="D8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -674,7 +684,9 @@
       <c r="D9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -702,7 +714,9 @@
       <c r="D10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -730,7 +744,9 @@
       <c r="D11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -748,65 +764,79 @@
     <row r="12" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
     </row>
     <row r="21" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
     </row>
     <row r="24" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
     </row>
     <row r="25" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="3"/>
+      <c r="E26" s="8"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -827,7 +857,7 @@
       <c r="B27" s="3"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="3"/>
+      <c r="E27" s="8"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>

--- a/Doc/Asistencia.xlsx
+++ b/Doc/Asistencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\UNI\UNI-FIIS-TPW-2022-1\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671A4D53-6C1E-46BD-9014-3B12D0C6921F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DD1873-BDE3-40B3-B467-2BD924C33C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="12">
   <si>
     <t>Paolo Luis Lobatón Caparó</t>
   </si>
@@ -67,7 +67,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +94,14 @@
       <b/>
       <sz val="20"/>
       <color theme="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -140,7 +148,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -163,6 +171,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -448,15 +459,15 @@
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" customWidth="1"/>
     <col min="2" max="2" width="37.42578125" customWidth="1"/>
-    <col min="3" max="5" width="8.7109375" style="7" customWidth="1"/>
-    <col min="6" max="18" width="8.7109375" customWidth="1"/>
+    <col min="3" max="6" width="8.7109375" style="7" customWidth="1"/>
+    <col min="7" max="18" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
@@ -537,7 +548,9 @@
       <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -567,7 +580,9 @@
       <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -597,7 +612,9 @@
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -627,7 +644,9 @@
       <c r="E7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -657,7 +676,9 @@
       <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -687,7 +708,7 @@
       <c r="E9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="4"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -717,7 +738,9 @@
       <c r="E10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -747,7 +770,9 @@
       <c r="E11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -765,71 +790,86 @@
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
     </row>
     <row r="21" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
     </row>
     <row r="22" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
     </row>
     <row r="23" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
@@ -837,7 +877,7 @@
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="3"/>
+      <c r="F26" s="8"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -858,7 +898,7 @@
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
-      <c r="F27" s="3"/>
+      <c r="F27" s="8"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
